--- a/标准化/方剂学标准化词表.xlsx
+++ b/标准化/方剂学标准化词表.xlsx
@@ -4836,7 +4836,7 @@
     <t>Yu Shu Dan</t>
   </si>
   <si>
-    <t>太乙紫金锭,神仙解毒万病丸</t>
+    <t>神仙解毒万病丸</t>
   </si>
   <si>
     <t>《百一选方》</t>
@@ -5698,7 +5698,7 @@
     <t>Zi Jin Ding</t>
   </si>
   <si>
-    <t>太乙神丹、追毒丹、紫金丹、玉枢丹</t>
+    <t>太乙神丹、追毒丹、紫金丹、太乙紫金锭</t>
   </si>
   <si>
     <t>《丹溪心法附余》</t>
@@ -8775,8 +8775,8 @@
   <sheetPr/>
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="A646" sqref="$A646:$XFD646"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A493" sqref="$A493:$XFD493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -15423,20 +15423,20 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
-      <c r="A418" t="s">
+    <row r="418" s="1" customFormat="1" spans="1:6">
+      <c r="A418" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="E418" t="s">
+      <c r="E418" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F418" s="1" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -16677,20 +16677,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
-      <c r="A493" t="s">
+    <row r="493" s="1" customFormat="1" spans="1:6">
+      <c r="A493" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C493" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="E493" t="s">
+      <c r="E493" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="F493" t="s">
+      <c r="F493" s="1" t="s">
         <v>1819</v>
       </c>
     </row>
@@ -16818,23 +16818,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="502" s="1" customFormat="1" spans="1:6">
-      <c r="A502" s="1" t="s">
+    <row r="502" s="2" customFormat="1" spans="1:6">
+      <c r="A502" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B502" s="2" t="s">
         <v>1851</v>
       </c>
-      <c r="C502" s="1" t="s">
+      <c r="C502" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="D502" s="1" t="s">
+      <c r="D502" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="E502" s="1" t="s">
+      <c r="E502" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="F502" s="1" t="s">
+      <c r="F502" s="2" t="s">
         <v>14</v>
       </c>
     </row>
